--- a/Баллы 2017.xlsx
+++ b/Баллы 2017.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Варианты</t>
   </si>
@@ -81,6 +81,30 @@
   </si>
   <si>
     <t>Выполнение проекта (max 24)</t>
+  </si>
+  <si>
+    <t>Гринемайер Константин</t>
+  </si>
+  <si>
+    <t>Иванилов Артур</t>
+  </si>
+  <si>
+    <t>Попова Любовь</t>
+  </si>
+  <si>
+    <t>Прокопец Вероника</t>
+  </si>
+  <si>
+    <t>Строков Иван</t>
+  </si>
+  <si>
+    <t>Терещенко Анастасия</t>
+  </si>
+  <si>
+    <t>Чернецкая Мария</t>
+  </si>
+  <si>
+    <t>Щербаков Роман</t>
   </si>
 </sst>
 </file>
@@ -149,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -396,21 +420,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,12 +489,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,12 +529,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,6 +563,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,15 +618,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -865,979 +932,909 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="22" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.28515625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="28" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="39" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="14.28515625" style="22" customWidth="1"/>
-    <col min="16" max="16" width="36.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.28515625" style="22" customWidth="1"/>
-    <col min="19" max="19" width="35" style="22" customWidth="1"/>
-    <col min="20" max="21" width="14.28515625" style="22" customWidth="1"/>
-    <col min="22" max="22" width="38" style="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="22" customWidth="1"/>
-    <col min="24" max="24" width="29.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="22"/>
-    <col min="26" max="26" width="12.85546875" style="22" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" style="22" customWidth="1"/>
-    <col min="28" max="16384" width="8.7109375" style="22"/>
+    <col min="1" max="1" width="34.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="18" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="28" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="39" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.28515625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="36.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.28515625" style="18" customWidth="1"/>
+    <col min="19" max="19" width="35" style="18" customWidth="1"/>
+    <col min="20" max="21" width="14.28515625" style="18" customWidth="1"/>
+    <col min="22" max="22" width="38" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="18" customWidth="1"/>
+    <col min="24" max="24" width="29.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="18"/>
+    <col min="26" max="26" width="12.85546875" style="18" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" style="18" customWidth="1"/>
+    <col min="28" max="16384" width="8.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28">
+      <c r="C1" s="22">
         <v>42618</v>
       </c>
-      <c r="D1" s="28">
+      <c r="D1" s="22">
         <v>42625</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="28">
+      <c r="F1" s="22">
         <v>42632</v>
       </c>
-      <c r="G1" s="51">
+      <c r="G1" s="34">
         <v>42639</v>
       </c>
-      <c r="H1" s="53">
+      <c r="H1" s="36">
         <v>42646</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="35">
+      <c r="J1" s="29">
         <v>42653</v>
       </c>
-      <c r="K1" s="35">
+      <c r="K1" s="29">
         <v>42660</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="35">
+      <c r="M1" s="29">
         <v>42667</v>
       </c>
-      <c r="N1" s="35">
+      <c r="N1" s="29">
         <v>42674</v>
       </c>
-      <c r="O1" s="35">
+      <c r="O1" s="29">
         <v>42681</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="35">
+      <c r="Q1" s="29">
         <v>42688</v>
       </c>
-      <c r="R1" s="35">
+      <c r="R1" s="29">
         <v>42695</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="35">
+      <c r="T1" s="29">
         <v>42702</v>
       </c>
-      <c r="U1" s="35">
+      <c r="U1" s="29">
         <v>42709</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="35">
+      <c r="W1" s="29">
         <v>42709</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Y1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AA1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AB1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="8" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3">
+    <row r="2" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="6">
-        <f>SUM(C2:X2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="7">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="4">
+        <f t="shared" ref="Y2:Y9" si="0">SUM(C2:X2)</f>
+        <v>1</v>
+      </c>
+      <c r="Z2" s="5">
         <v>85</v>
       </c>
-      <c r="AA2" s="14" t="str">
-        <f t="shared" ref="AA2:AA4" si="0">IF(Y2&gt;=87,"отл",IF(Y2&gt;=73,"хорошо",IF(Y2&gt;=50,"удовл","Не удовл")))</f>
+      <c r="AA2" s="10" t="str">
+        <f t="shared" ref="AA2:AA4" si="1">IF(Y2&gt;=87,"отл",IF(Y2&gt;=73,"хорошо",IF(Y2&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AB2" s="39" t="str">
+      <c r="AB2" s="33" t="str">
         <f xml:space="preserve"> IF(Y2&gt;=Z2,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="8" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="12">
-        <f>SUM(C3:X3)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="13">
+    <row r="3" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z3" s="9">
         <v>85</v>
       </c>
-      <c r="AA3" s="14" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA3" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AB3" s="14" t="str">
+      <c r="AB3" s="10" t="str">
         <f xml:space="preserve"> IF(Y3&gt;=Z3,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="8" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="12">
-        <f>SUM(C4:X4)</f>
+    <row r="4" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="9">
         <v>85</v>
       </c>
-      <c r="AA4" s="14" t="str">
+      <c r="AA4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AB4" s="10" t="str">
+        <f t="shared" ref="AB4:AB6" si="2" xml:space="preserve"> IF(Y4&gt;=Z4,"Зачет","Не зачет")</f>
+        <v>Не зачет</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="8">
         <f t="shared" si="0"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AB4" s="14" t="str">
-        <f t="shared" ref="AB4:AB6" si="1" xml:space="preserve"> IF(Y4&gt;=Z4,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" s="8" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="12">
-        <f>SUM(C5:X5)</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="9">
         <v>85</v>
       </c>
-      <c r="AA5" s="14" t="str">
+      <c r="AA5" s="10" t="str">
         <f>IF(Y5&gt;=87,"отл",IF(Y5&gt;=73,"хорошо",IF(Y5&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AB5" s="14" t="str">
-        <f t="shared" si="1"/>
+      <c r="AB5" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="12">
-        <f>SUM(C6:X6)</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="13">
+    <row r="6" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="9">
         <v>85</v>
       </c>
-      <c r="AA6" s="14" t="str">
-        <f t="shared" ref="AA6:AA9" si="2">IF(Y6&gt;=87,"отл",IF(Y6&gt;=73,"хорошо",IF(Y6&gt;=50,"удовл","Не удовл")))</f>
+      <c r="AA6" s="10" t="str">
+        <f t="shared" ref="AA6:AA9" si="3">IF(Y6&gt;=87,"отл",IF(Y6&gt;=73,"хорошо",IF(Y6&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AB6" s="14" t="str">
-        <f t="shared" si="1"/>
+      <c r="AB6" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="8" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10">
-        <v>6</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="6">
-        <f>SUM(C7:X7)</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="13">
+    <row r="7" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="9">
         <v>85</v>
       </c>
-      <c r="AA7" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="AA7" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
-      <c r="AB7" s="39" t="str">
+      <c r="AB7" s="33" t="str">
         <f xml:space="preserve"> IF(Y7&gt;=Z7,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="8" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="12">
-        <f>SUM(C8:X8)</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="13">
+    <row r="8" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z8" s="9">
         <v>85</v>
       </c>
-      <c r="AA8" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="AA8" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
-      <c r="AB8" s="14" t="str">
+      <c r="AB8" s="10" t="str">
         <f xml:space="preserve"> IF(Y8&gt;=Z8,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="8" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="12">
-        <f>SUM(C9:X9)</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="13">
+    <row r="9" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z9" s="9">
         <v>85</v>
       </c>
-      <c r="AA9" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="AA9" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
-      <c r="AB9" s="14" t="str">
-        <f t="shared" ref="AB9:AB11" si="3" xml:space="preserve"> IF(Y9&gt;=Z9,"Зачет","Не зачет")</f>
+      <c r="AB9" s="10" t="str">
+        <f t="shared" ref="AB9" si="4" xml:space="preserve"> IF(Y9&gt;=Z9,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="8" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="12">
-        <f>SUM(C10:X10)</f>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="13">
-        <v>85</v>
-      </c>
-      <c r="AA10" s="14" t="str">
-        <f>IF(Y10&gt;=87,"отл",IF(Y10&gt;=73,"хорошо",IF(Y10&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
-      </c>
-      <c r="AB10" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>Не зачет</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="8" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="12">
-        <f>SUM(C11:X11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="13">
-        <v>85</v>
-      </c>
-      <c r="AA11" s="14" t="str">
-        <f t="shared" ref="AA11" si="4">IF(Y11&gt;=87,"отл",IF(Y11&gt;=73,"хорошо",IF(Y11&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
-      </c>
-      <c r="AB11" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>Не зачет</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="45" t="s">
+    <row r="10" spans="1:28" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="45" t="s">
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="48" t="s">
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="46"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="50" t="s">
+      <c r="K10" s="50"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="42" t="s">
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="43"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="42" t="s">
+      <c r="R10" s="47"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="U12" s="43"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="40" t="s">
+      <c r="U10" s="47"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="33"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="27"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WVhkDhgLUjmh/oGpKmKa3Kj0Y8j4fsxsrJDLbpbKO6IGQguAh+TTH07N5zCxh5pg5ncGscdGm4/SeQxO0/PjGA==" saltValue="7hglGjYLkabM+n9yNKmdCg==" spinCount="100000" sheet="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="7">
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:P10"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:X11">
+  <conditionalFormatting sqref="C2:X9">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Баллы 2017.xlsx
+++ b/Баллы 2017.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\NSTU\Student 2017\trunk\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -110,12 +105,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,7 +683,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -720,10 +715,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -755,7 +749,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -931,17 +924,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.5703125" style="18" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="18" customWidth="1"/>
@@ -966,7 +959,7 @@
     <col min="28" max="16384" width="8.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
@@ -1052,15 +1045,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="39">
+        <v>1</v>
+      </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1083,7 +1080,7 @@
       <c r="X2" s="7"/>
       <c r="Y2" s="4">
         <f t="shared" ref="Y2:Y9" si="0">SUM(C2:X2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="5">
         <v>85</v>
@@ -1097,15 +1094,19 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="40">
+        <v>2</v>
+      </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1128,7 +1129,7 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="9">
         <v>85</v>
@@ -1142,15 +1143,19 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="40">
+        <v>5</v>
+      </c>
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1173,7 +1178,7 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="9">
         <v>85</v>
@@ -1187,15 +1192,19 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="40">
+        <v>6</v>
+      </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1218,7 +1227,7 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5" s="9">
         <v>85</v>
@@ -1232,15 +1241,19 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="40">
+        <v>4</v>
+      </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1263,7 +1276,7 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z6" s="9">
         <v>85</v>
@@ -1277,15 +1290,19 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="40">
+        <v>7</v>
+      </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1308,7 +1325,7 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z7" s="9">
         <v>85</v>
@@ -1322,7 +1339,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="42" t="s">
         <v>26</v>
       </c>
@@ -1330,7 +1347,9 @@
       <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1367,15 +1386,19 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="40">
+        <v>3</v>
+      </c>
       <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1398,7 +1421,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="9">
         <v>85</v>
@@ -1412,7 +1435,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="21" customFormat="1" ht="15.75" thickBot="1">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="49" t="s">
@@ -1456,7 +1479,7 @@
       <c r="AA10" s="15"/>
       <c r="AB10" s="27"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1484,7 +1507,7 @@
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1512,7 +1535,7 @@
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1540,7 +1563,7 @@
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1568,7 +1591,7 @@
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1596,7 +1619,7 @@
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -1624,7 +1647,7 @@
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1652,7 +1675,7 @@
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1680,7 +1703,7 @@
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1708,7 +1731,7 @@
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -1736,7 +1759,7 @@
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -1764,7 +1787,7 @@
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -1792,7 +1815,7 @@
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -1821,7 +1844,7 @@
       <c r="Z23" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WVhkDhgLUjmh/oGpKmKa3Kj0Y8j4fsxsrJDLbpbKO6IGQguAh+TTH07N5zCxh5pg5ncGscdGm4/SeQxO0/PjGA==" saltValue="7hglGjYLkabM+n9yNKmdCg==" spinCount="100000" sheet="1" sort="0"/>
+  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>
@@ -1845,24 +1868,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Баллы 2017.xlsx
+++ b/Баллы 2017.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\NSTU\Student 2017\trunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -105,12 +110,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,7 +688,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -715,9 +720,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -749,6 +755,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -924,17 +931,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" style="18" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="18" customWidth="1"/>
@@ -959,7 +966,7 @@
     <col min="28" max="16384" width="8.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
@@ -1045,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>20</v>
       </c>
@@ -1059,7 +1066,9 @@
         <v>1</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7"/>
       <c r="I2" s="3"/>
@@ -1094,7 +1103,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>21</v>
       </c>
@@ -1107,8 +1116,12 @@
       <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="7">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1129,7 +1142,7 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z3" s="9">
         <v>85</v>
@@ -1143,7 +1156,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>22</v>
       </c>
@@ -1156,8 +1169,12 @@
       <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="7">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1178,7 +1195,7 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z4" s="9">
         <v>85</v>
@@ -1192,7 +1209,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>23</v>
       </c>
@@ -1205,8 +1222,12 @@
       <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="7">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1227,7 +1248,7 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z5" s="9">
         <v>85</v>
@@ -1241,7 +1262,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>24</v>
       </c>
@@ -1254,8 +1275,12 @@
       <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1276,7 +1301,7 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z6" s="9">
         <v>85</v>
@@ -1290,7 +1315,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>25</v>
       </c>
@@ -1303,8 +1328,12 @@
       <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1325,7 +1354,7 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z7" s="9">
         <v>85</v>
@@ -1339,19 +1368,25 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="40">
+        <v>8</v>
+      </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1372,7 +1407,7 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z8" s="9">
         <v>85</v>
@@ -1386,7 +1421,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>27</v>
       </c>
@@ -1399,8 +1434,12 @@
       <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1421,7 +1460,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z9" s="9">
         <v>85</v>
@@ -1435,7 +1474,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="21" customFormat="1" ht="15.75" thickBot="1">
+    <row r="10" spans="1:28" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="49" t="s">
@@ -1479,7 +1518,7 @@
       <c r="AA10" s="15"/>
       <c r="AB10" s="27"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1507,7 +1546,7 @@
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1535,7 +1574,7 @@
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1563,7 +1602,7 @@
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1591,7 +1630,7 @@
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1619,7 +1658,7 @@
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -1647,7 +1686,7 @@
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1675,7 +1714,7 @@
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1703,7 +1742,7 @@
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1731,7 +1770,7 @@
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -1759,7 +1798,7 @@
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -1787,7 +1826,7 @@
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -1815,7 +1854,7 @@
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -1844,7 +1883,7 @@
       <c r="Z23" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UPyy31QhogsaQ9X4hP/7uwOnit4wstoAH6I2h8ZA8MDX2ithU2tI+Q6TUVszytHPPZbQjVF0Ju5CWEJ7qpa4TQ==" saltValue="FTzODK06W+DUE/bREoR8Vg==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>
@@ -1868,24 +1907,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Баллы 2017.xlsx
+++ b/Баллы 2017.xlsx
@@ -938,7 +938,7 @@
       <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,12 +1065,16 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -1089,7 +1093,7 @@
       <c r="X2" s="7"/>
       <c r="Y2" s="4">
         <f t="shared" ref="Y2:Y9" si="0">SUM(C2:X2)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z2" s="5">
         <v>85</v>
@@ -1123,7 +1127,9 @@
         <v>1</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7">
+        <v>0.5</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -1142,7 +1148,7 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" s="9">
         <v>85</v>
@@ -1176,7 +1182,9 @@
         <v>1</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7">
+        <v>0.5</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -1195,7 +1203,7 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z4" s="9">
         <v>85</v>
@@ -1282,8 +1290,12 @@
         <v>0</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -1301,7 +1313,7 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Z6" s="9">
         <v>85</v>
@@ -1335,7 +1347,9 @@
         <v>1</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -1388,7 +1402,9 @@
         <v>1</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>0.5</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -1407,7 +1423,7 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z8" s="9">
         <v>85</v>
@@ -1441,7 +1457,9 @@
         <v>1</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1883,7 +1901,7 @@
       <c r="Z23" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UPyy31QhogsaQ9X4hP/7uwOnit4wstoAH6I2h8ZA8MDX2ithU2tI+Q6TUVszytHPPZbQjVF0Ju5CWEJ7qpa4TQ==" saltValue="FTzODK06W+DUE/bREoR8Vg==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ioU64XJjOCOBmibWW+rE0Xg6hAm6OFY/XlWlLlpJPsdGgIZKSVkmf1/Qj+92g8or8R2TlMrGMcHDLKLY6s9Q3w==" saltValue="zY+lGX2Tov8hV1y9vfNP0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2017.xlsx
+++ b/Баллы 2017.xlsx
@@ -624,7 +624,14 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -932,13 +939,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,25 +955,26 @@
     <col min="3" max="4" width="14.28515625" style="18" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="14.28515625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="28" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="39" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="14.28515625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="36.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.28515625" style="18" customWidth="1"/>
-    <col min="19" max="19" width="35" style="18" customWidth="1"/>
-    <col min="20" max="21" width="14.28515625" style="18" customWidth="1"/>
-    <col min="22" max="22" width="38" style="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="18" customWidth="1"/>
-    <col min="24" max="24" width="29.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="18"/>
-    <col min="26" max="26" width="12.85546875" style="18" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" style="18" customWidth="1"/>
-    <col min="28" max="16384" width="8.7109375" style="18"/>
+    <col min="9" max="9" width="14.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="28" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="39" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14.28515625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="36.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.28515625" style="18" customWidth="1"/>
+    <col min="20" max="20" width="35" style="18" customWidth="1"/>
+    <col min="21" max="22" width="14.28515625" style="18" customWidth="1"/>
+    <col min="23" max="23" width="38" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="18" customWidth="1"/>
+    <col min="25" max="25" width="29.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" style="18"/>
+    <col min="27" max="27" width="12.85546875" style="18" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" style="18" customWidth="1"/>
+    <col min="29" max="16384" width="8.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
@@ -974,85 +982,88 @@
         <v>0</v>
       </c>
       <c r="C1" s="22">
-        <v>42618</v>
+        <v>42983</v>
       </c>
       <c r="D1" s="22">
-        <v>42625</v>
+        <v>42990</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="22">
-        <v>42632</v>
+        <v>42997</v>
       </c>
       <c r="G1" s="34">
-        <v>42639</v>
+        <v>43004</v>
       </c>
       <c r="H1" s="36">
-        <v>42646</v>
-      </c>
-      <c r="I1" s="35" t="s">
+        <v>43011</v>
+      </c>
+      <c r="I1" s="29">
+        <v>43018</v>
+      </c>
+      <c r="J1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="29">
-        <v>42653</v>
-      </c>
       <c r="K1" s="29">
-        <v>42660</v>
-      </c>
-      <c r="L1" s="30" t="s">
+        <v>43025</v>
+      </c>
+      <c r="L1" s="29">
+        <v>43032</v>
+      </c>
+      <c r="M1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="29">
-        <v>42667</v>
-      </c>
       <c r="N1" s="29">
-        <v>42674</v>
+        <v>43039</v>
       </c>
       <c r="O1" s="29">
-        <v>42681</v>
-      </c>
-      <c r="P1" s="30" t="s">
+        <v>43046</v>
+      </c>
+      <c r="P1" s="29">
+        <v>43053</v>
+      </c>
+      <c r="Q1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="29">
-        <v>42688</v>
-      </c>
       <c r="R1" s="29">
-        <v>42695</v>
-      </c>
-      <c r="S1" s="30" t="s">
+        <v>43060</v>
+      </c>
+      <c r="S1" s="29">
+        <v>43067</v>
+      </c>
+      <c r="T1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="29">
-        <v>42702</v>
-      </c>
       <c r="U1" s="29">
-        <v>42709</v>
-      </c>
-      <c r="V1" s="30" t="s">
+        <v>43074</v>
+      </c>
+      <c r="V1" s="29">
+        <v>43081</v>
+      </c>
+      <c r="W1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="29">
-        <v>42709</v>
-      </c>
-      <c r="X1" s="31" t="s">
+      <c r="X1" s="29">
+        <v>43081</v>
+      </c>
+      <c r="Y1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="AA1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AB1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AC1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>20</v>
       </c>
@@ -1071,13 +1082,19 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
       <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -1091,23 +1108,24 @@
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="4">
-        <f t="shared" ref="Y2:Y9" si="0">SUM(C2:X2)</f>
-        <v>7</v>
-      </c>
-      <c r="Z2" s="5">
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="4">
+        <f>SUM(C2:Y2)</f>
+        <v>10</v>
+      </c>
+      <c r="AA2" s="5">
         <v>85</v>
       </c>
-      <c r="AA2" s="10" t="str">
-        <f t="shared" ref="AA2:AA4" si="1">IF(Y2&gt;=87,"отл",IF(Y2&gt;=73,"хорошо",IF(Y2&gt;=50,"удовл","Не удовл")))</f>
+      <c r="AB2" s="10" t="str">
+        <f t="shared" ref="AB2:AB4" si="0">IF(Z2&gt;=87,"отл",IF(Z2&gt;=73,"хорошо",IF(Z2&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AB2" s="33" t="str">
-        <f xml:space="preserve"> IF(Y2&gt;=Z2,"Зачет","Не зачет")</f>
+      <c r="AC2" s="33" t="str">
+        <f xml:space="preserve"> IF(Z2&gt;=AA2,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>21</v>
       </c>
@@ -1126,13 +1144,19 @@
       <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
       <c r="H3" s="7">
         <v>0.5</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7">
+        <v>0.5</v>
+      </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="K3" s="7">
+        <v>0.5</v>
+      </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
@@ -1146,23 +1170,24 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="8">
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8">
+        <f>SUM(C3:Y3)</f>
+        <v>10.5</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>85</v>
+      </c>
+      <c r="AB3" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>85</v>
-      </c>
-      <c r="AA3" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AB3" s="10" t="str">
-        <f xml:space="preserve"> IF(Y3&gt;=Z3,"Зачет","Не зачет")</f>
+      <c r="AC3" s="10" t="str">
+        <f xml:space="preserve"> IF(Z3&gt;=AA3,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>22</v>
       </c>
@@ -1181,13 +1206,19 @@
       <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
       <c r="H4" s="7">
         <v>0.5</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -1201,23 +1232,24 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="8">
+        <f>SUM(C4:Y4)</f>
+        <v>10.5</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>85</v>
+      </c>
+      <c r="AB4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="Z4" s="9">
-        <v>85</v>
-      </c>
-      <c r="AA4" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AB4" s="10" t="str">
-        <f t="shared" ref="AB4:AB6" si="2" xml:space="preserve"> IF(Y4&gt;=Z4,"Зачет","Не зачет")</f>
+      <c r="AC4" s="10" t="str">
+        <f t="shared" ref="AC4:AC6" si="1" xml:space="preserve"> IF(Z4&gt;=AA4,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>23</v>
       </c>
@@ -1236,11 +1268,17 @@
       <c r="F5" s="7">
         <v>0</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -1254,23 +1292,24 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Z5" s="9">
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="8">
+        <f>SUM(C5:Y5)</f>
+        <v>8</v>
+      </c>
+      <c r="AA5" s="9">
         <v>85</v>
       </c>
-      <c r="AA5" s="10" t="str">
-        <f>IF(Y5&gt;=87,"отл",IF(Y5&gt;=73,"хорошо",IF(Y5&gt;=50,"удовл","Не удовл")))</f>
+      <c r="AB5" s="10" t="str">
+        <f>IF(Z5&gt;=87,"отл",IF(Z5&gt;=73,"хорошо",IF(Z5&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AB5" s="10" t="str">
-        <f t="shared" si="2"/>
+      <c r="AC5" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>24</v>
       </c>
@@ -1289,15 +1328,21 @@
       <c r="F6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
         <v>8</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -1311,23 +1356,24 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="8">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Z6" s="9">
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="8">
+        <f>SUM(C6:Y6)</f>
+        <v>19</v>
+      </c>
+      <c r="AA6" s="9">
         <v>85</v>
       </c>
-      <c r="AA6" s="10" t="str">
-        <f t="shared" ref="AA6:AA9" si="3">IF(Y6&gt;=87,"отл",IF(Y6&gt;=73,"хорошо",IF(Y6&gt;=50,"удовл","Не удовл")))</f>
+      <c r="AB6" s="10" t="str">
+        <f t="shared" ref="AB6:AB9" si="2">IF(Z6&gt;=87,"отл",IF(Z6&gt;=73,"хорошо",IF(Z6&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AB6" s="10" t="str">
-        <f t="shared" si="2"/>
+      <c r="AC6" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>25</v>
       </c>
@@ -1346,13 +1392,19 @@
       <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -1366,23 +1418,24 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Z7" s="9">
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="4">
+        <f>SUM(C7:Y7)</f>
+        <v>9</v>
+      </c>
+      <c r="AA7" s="9">
         <v>85</v>
       </c>
-      <c r="AA7" s="10" t="str">
-        <f t="shared" si="3"/>
+      <c r="AB7" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
-      <c r="AB7" s="33" t="str">
-        <f xml:space="preserve"> IF(Y7&gt;=Z7,"Зачет","Не зачет")</f>
+      <c r="AC7" s="33" t="str">
+        <f xml:space="preserve"> IF(Z7&gt;=AA7,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>26</v>
       </c>
@@ -1401,13 +1454,19 @@
       <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
       <c r="H8" s="7">
         <v>0.5</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>0.5</v>
+      </c>
       <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="7">
+        <v>0.5</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -1421,23 +1480,24 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="8">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="Z8" s="9">
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="8">
+        <f>SUM(C8:Y8)</f>
+        <v>9.5</v>
+      </c>
+      <c r="AA8" s="9">
         <v>85</v>
       </c>
-      <c r="AA8" s="10" t="str">
-        <f t="shared" si="3"/>
+      <c r="AB8" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
-      <c r="AB8" s="10" t="str">
-        <f xml:space="preserve"> IF(Y8&gt;=Z8,"Зачет","Не зачет")</f>
+      <c r="AC8" s="10" t="str">
+        <f xml:space="preserve"> IF(Z8&gt;=AA8,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>27</v>
       </c>
@@ -1456,13 +1516,19 @@
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
       <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -1476,23 +1542,24 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Z9" s="9">
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="8">
+        <f>SUM(C9:Y9)</f>
+        <v>11</v>
+      </c>
+      <c r="AA9" s="9">
         <v>85</v>
       </c>
-      <c r="AA9" s="10" t="str">
-        <f t="shared" si="3"/>
+      <c r="AB9" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
-      <c r="AB9" s="10" t="str">
-        <f t="shared" ref="AB9" si="4" xml:space="preserve"> IF(Y9&gt;=Z9,"Зачет","Не зачет")</f>
+      <c r="AC9" s="10" t="str">
+        <f t="shared" ref="AC9" si="3" xml:space="preserve"> IF(Z9&gt;=AA9,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="49" t="s">
@@ -1506,37 +1573,38 @@
       <c r="G10" s="50"/>
       <c r="H10" s="50"/>
       <c r="I10" s="50"/>
-      <c r="J10" s="52" t="s">
+      <c r="J10" s="50"/>
+      <c r="K10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="50"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="54" t="s">
+      <c r="L10" s="50"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="47"/>
       <c r="O10" s="47"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="46" t="s">
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="47"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="46" t="s">
+      <c r="S10" s="47"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="U10" s="47"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="44" t="s">
+      <c r="V10" s="47"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="27"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="27"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1545,9 +1613,9 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
@@ -1563,8 +1631,9 @@
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA11" s="16"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1573,9 +1642,9 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="19"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
@@ -1591,8 +1660,9 @@
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA12" s="19"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1601,9 +1671,9 @@
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="19"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
@@ -1619,8 +1689,9 @@
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA13" s="19"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1629,9 +1700,9 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="19"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
@@ -1647,8 +1718,9 @@
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA14" s="19"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1657,9 +1729,9 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="19"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
@@ -1675,8 +1747,9 @@
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA15" s="19"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -1685,9 +1758,9 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="19"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
@@ -1703,8 +1776,9 @@
       <c r="X16" s="19"/>
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA16" s="19"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1713,9 +1787,9 @@
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="19"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
@@ -1731,8 +1805,9 @@
       <c r="X17" s="19"/>
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA17" s="19"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1741,9 +1816,9 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="19"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
@@ -1759,8 +1834,9 @@
       <c r="X18" s="19"/>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA18" s="19"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1769,9 +1845,9 @@
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="19"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
@@ -1787,8 +1863,9 @@
       <c r="X19" s="19"/>
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA19" s="19"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -1797,9 +1874,9 @@
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="19"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
@@ -1815,8 +1892,9 @@
       <c r="X20" s="19"/>
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA20" s="19"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -1825,9 +1903,9 @@
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="19"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
@@ -1843,8 +1921,9 @@
       <c r="X21" s="19"/>
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA21" s="19"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -1853,9 +1932,9 @@
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="19"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
@@ -1871,8 +1950,9 @@
       <c r="X22" s="19"/>
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA22" s="19"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -1881,9 +1961,9 @@
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="19"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
@@ -1899,23 +1979,29 @@
       <c r="X23" s="19"/>
       <c r="Y23" s="19"/>
       <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ioU64XJjOCOBmibWW+rE0Xg6hAm6OFY/XlWlLlpJPsdGgIZKSVkmf1/Qj+92g8or8R2TlMrGMcHDLKLY6s9Q3w==" saltValue="zY+lGX2Tov8hV1y9vfNP0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iZq7Wj3n+w1kEbBIroJn/DkOoGol4yUXtDCeXJVQ8GeoQ7doeKNaF+rungL1AhrKYbW5+ttHjivrmU49CymAYQ==" saltValue="KA3MPPNwua+KK2Es0Z8yhw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="7">
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="U10:W10"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:Q10"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:X9">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+  <conditionalFormatting sqref="C2:H9 J2:Y9">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Баллы 2017.xlsx
+++ b/Баллы 2017.xlsx
@@ -942,10 +942,10 @@
   <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,10 +1091,10 @@
       <c r="I2" s="7">
         <v>1</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="7">
-        <v>1</v>
-      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -1110,14 +1110,14 @@
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="4">
-        <f>SUM(C2:Y2)</f>
-        <v>10</v>
+        <f t="shared" ref="Z2:Z9" si="0">SUM(C2:Y2)</f>
+        <v>9</v>
       </c>
       <c r="AA2" s="5">
         <v>85</v>
       </c>
       <c r="AB2" s="10" t="str">
-        <f t="shared" ref="AB2:AB4" si="0">IF(Z2&gt;=87,"отл",IF(Z2&gt;=73,"хорошо",IF(Z2&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" ref="AB2:AB4" si="1">IF(Z2&gt;=87,"отл",IF(Z2&gt;=73,"хорошо",IF(Z2&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
       <c r="AC2" s="33" t="str">
@@ -1153,10 +1153,10 @@
       <c r="I3" s="7">
         <v>0.5</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="J3" s="7">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
@@ -1172,14 +1172,14 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="8">
-        <f>SUM(C3:Y3)</f>
-        <v>10.5</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="AA3" s="9">
         <v>85</v>
       </c>
       <c r="AB3" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
       <c r="AC3" s="10" t="str">
@@ -1215,10 +1215,10 @@
       <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
+      <c r="J4" s="7">
+        <v>7</v>
+      </c>
+      <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -1234,18 +1234,18 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="8">
-        <f>SUM(C4:Y4)</f>
-        <v>10.5</v>
+        <f t="shared" si="0"/>
+        <v>16.5</v>
       </c>
       <c r="AA4" s="9">
         <v>85</v>
       </c>
       <c r="AB4" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
       <c r="AC4" s="10" t="str">
-        <f t="shared" ref="AC4:AC6" si="1" xml:space="preserve"> IF(Z4&gt;=AA4,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AC4:AC6" si="2" xml:space="preserve"> IF(Z4&gt;=AA4,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1271,14 +1271,16 @@
       <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
       <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
+      <c r="J5" s="7">
+        <v>7</v>
+      </c>
+      <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -1294,8 +1296,8 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8">
-        <f>SUM(C5:Y5)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="AA5" s="9">
         <v>85</v>
@@ -1305,7 +1307,7 @@
         <v>Не удовл</v>
       </c>
       <c r="AC5" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1340,9 +1342,7 @@
       <c r="J6" s="7">
         <v>8</v>
       </c>
-      <c r="K6" s="7">
-        <v>1</v>
-      </c>
+      <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -1358,18 +1358,18 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="8">
-        <f>SUM(C6:Y6)</f>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="AA6" s="9">
         <v>85</v>
       </c>
       <c r="AB6" s="10" t="str">
-        <f t="shared" ref="AB6:AB9" si="2">IF(Z6&gt;=87,"отл",IF(Z6&gt;=73,"хорошо",IF(Z6&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" ref="AB6:AB9" si="3">IF(Z6&gt;=87,"отл",IF(Z6&gt;=73,"хорошо",IF(Z6&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
       <c r="AC6" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1401,10 +1401,10 @@
       <c r="I7" s="7">
         <v>1</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7">
-        <v>1</v>
-      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -1420,14 +1420,14 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="4">
-        <f>SUM(C7:Y7)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="AA7" s="9">
         <v>85</v>
       </c>
       <c r="AB7" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
       <c r="AC7" s="33" t="str">
@@ -1463,10 +1463,10 @@
       <c r="I8" s="7">
         <v>0.5</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="J8" s="7">
+        <v>7</v>
+      </c>
+      <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -1482,14 +1482,14 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="8">
-        <f>SUM(C8:Y8)</f>
-        <v>9.5</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="AA8" s="9">
         <v>85</v>
       </c>
       <c r="AB8" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
       <c r="AC8" s="10" t="str">
@@ -1525,10 +1525,10 @@
       <c r="I9" s="7">
         <v>1</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
+      <c r="J9" s="7">
+        <v>8</v>
+      </c>
+      <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -1544,18 +1544,18 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8">
-        <f>SUM(C9:Y9)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="AA9" s="9">
         <v>85</v>
       </c>
       <c r="AB9" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
       <c r="AC9" s="10" t="str">
-        <f t="shared" ref="AC9" si="3" xml:space="preserve"> IF(Z9&gt;=AA9,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AC9" si="4" xml:space="preserve"> IF(Z9&gt;=AA9,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
       <c r="AA23" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iZq7Wj3n+w1kEbBIroJn/DkOoGol4yUXtDCeXJVQ8GeoQ7doeKNaF+rungL1AhrKYbW5+ttHjivrmU49CymAYQ==" saltValue="KA3MPPNwua+KK2Es0Z8yhw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hYPfyT8DKRjDS48MOv75+eRWO88LR2Yyot7dReTv9O2hrDjq4efhsqeqqwUEWbTveW9MeYkwUauoX33KmOmonA==" saltValue="POMi4fCAfUv8saXjkwBptg==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2017.xlsx
+++ b/Баллы 2017.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\NSTU\Student 2017\trunk\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -695,7 +690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -730,7 +725,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -942,16 +937,16 @@
   <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14.28515625" style="18" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="14.28515625" style="18" customWidth="1"/>
@@ -1094,8 +1089,12 @@
       <c r="J2" s="3">
         <v>0</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -1111,7 +1110,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="4">
         <f t="shared" ref="Z2:Z9" si="0">SUM(C2:Y2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA2" s="5">
         <v>85</v>
@@ -1156,8 +1155,12 @@
       <c r="J3" s="7">
         <v>7</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -1218,8 +1221,12 @@
       <c r="J4" s="7">
         <v>7</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -1235,7 +1242,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="8">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA4" s="9">
         <v>85</v>
@@ -1280,8 +1287,12 @@
       <c r="J5" s="7">
         <v>7</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -1342,9 +1353,15 @@
       <c r="J6" s="7">
         <v>8</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>11</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1359,7 +1376,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="8">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="AA6" s="9">
         <v>85</v>
@@ -1404,8 +1421,12 @@
       <c r="J7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -1421,7 +1442,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA7" s="9">
         <v>85</v>
@@ -1466,8 +1487,12 @@
       <c r="J8" s="7">
         <v>7</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1528,8 +1553,12 @@
       <c r="J9" s="7">
         <v>8</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1545,7 +1574,7 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="8">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA9" s="9">
         <v>85</v>
@@ -1982,7 +2011,7 @@
       <c r="AA23" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hYPfyT8DKRjDS48MOv75+eRWO88LR2Yyot7dReTv9O2hrDjq4efhsqeqqwUEWbTveW9MeYkwUauoX33KmOmonA==" saltValue="POMi4fCAfUv8saXjkwBptg==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2017.xlsx
+++ b/Баллы 2017.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\NSTU\Student 2017\trunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -690,7 +695,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -725,7 +730,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -937,10 +942,10 @@
   <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="R10" sqref="R10:T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,12 +1100,24 @@
       <c r="L2" s="7">
         <v>1</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
@@ -1110,7 +1127,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="4">
         <f t="shared" ref="Z2:Z9" si="0">SUM(C2:Y2)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA2" s="5">
         <v>85</v>
@@ -1161,12 +1178,24 @@
       <c r="L3" s="7">
         <v>0</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -1227,12 +1256,24 @@
       <c r="L4" s="7">
         <v>1</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -1242,7 +1283,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="8">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA4" s="9">
         <v>85</v>
@@ -1293,12 +1334,24 @@
       <c r="L5" s="7">
         <v>0</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -1362,11 +1415,21 @@
       <c r="M6" s="7">
         <v>11</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>1</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
@@ -1376,7 +1439,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="8">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AA6" s="9">
         <v>85</v>
@@ -1427,12 +1490,24 @@
       <c r="L7" s="7">
         <v>1</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -1442,7 +1517,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA7" s="9">
         <v>85</v>
@@ -1493,12 +1568,24 @@
       <c r="L8" s="7">
         <v>0</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
@@ -1508,7 +1595,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="8">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA8" s="9">
         <v>85</v>
@@ -1559,12 +1646,24 @@
       <c r="L9" s="7">
         <v>0</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -1574,7 +1673,7 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="8">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA9" s="9">
         <v>85</v>
@@ -2011,7 +2110,7 @@
       <c r="AA23" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SPZ/xmspx3LEvpVPPjAt17AgwjM49rqf4x7OiAhJ0aVe8af1Q8GXOQnUdTkIhC9cj+vmEvYBv/MAaYU95obnFQ==" saltValue="7Lo3x8FzjGG1WadLXt69/w==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2017.xlsx
+++ b/Баллы 2017.xlsx
@@ -470,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -587,44 +587,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -939,13 +945,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="R11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10:T10"/>
+      <selection pane="bottomRight" activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,19 +968,20 @@
     <col min="13" max="13" width="39" style="18" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="14.28515625" style="18" customWidth="1"/>
     <col min="17" max="17" width="36.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.28515625" style="18" customWidth="1"/>
-    <col min="20" max="20" width="35" style="18" customWidth="1"/>
-    <col min="21" max="22" width="14.28515625" style="18" customWidth="1"/>
-    <col min="23" max="23" width="38" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="18" customWidth="1"/>
-    <col min="25" max="25" width="29.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="18"/>
-    <col min="27" max="27" width="12.85546875" style="18" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" style="18" customWidth="1"/>
-    <col min="29" max="16384" width="8.7109375" style="18"/>
+    <col min="18" max="20" width="14.28515625" style="18" customWidth="1"/>
+    <col min="21" max="21" width="35.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.28515625" style="18" customWidth="1"/>
+    <col min="24" max="24" width="38" style="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="18" customWidth="1"/>
+    <col min="26" max="26" width="29.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="18"/>
+    <col min="28" max="28" width="12.85546875" style="18" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
@@ -1032,38 +1039,41 @@
       <c r="S1" s="29">
         <v>43067</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="29">
+        <v>43074</v>
+      </c>
+      <c r="U1" s="30" t="s">
         <v>5</v>
-      </c>
-      <c r="U1" s="29">
-        <v>43074</v>
       </c>
       <c r="V1" s="29">
         <v>43081</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="29">
+        <v>43088</v>
+      </c>
+      <c r="X1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="29">
-        <v>43081</v>
-      </c>
-      <c r="Y1" s="31" t="s">
+      <c r="Y1" s="29">
+        <v>43095</v>
+      </c>
+      <c r="Z1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AB1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AC1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AD1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>20</v>
       </c>
@@ -1118,30 +1128,35 @@
       <c r="R2" s="7">
         <v>0</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="S2" s="7">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0</v>
+      </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="4">
-        <f t="shared" ref="Z2:Z9" si="0">SUM(C2:Y2)</f>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="4">
+        <f t="shared" ref="AA2:AA9" si="0">SUM(C2:Z2)</f>
         <v>12</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AB2" s="5">
         <v>85</v>
       </c>
-      <c r="AB2" s="10" t="str">
-        <f t="shared" ref="AB2:AB4" si="1">IF(Z2&gt;=87,"отл",IF(Z2&gt;=73,"хорошо",IF(Z2&gt;=50,"удовл","Не удовл")))</f>
+      <c r="AC2" s="10" t="str">
+        <f t="shared" ref="AC2:AC4" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AC2" s="33" t="str">
-        <f xml:space="preserve"> IF(Z2&gt;=AA2,"Зачет","Не зачет")</f>
+      <c r="AD2" s="33" t="str">
+        <f xml:space="preserve"> IF(AA2&gt;=AB2,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>21</v>
       </c>
@@ -1196,30 +1211,35 @@
       <c r="R3" s="7">
         <v>0</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="S3" s="7">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0</v>
+      </c>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="8">
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AB3" s="9">
         <v>85</v>
       </c>
-      <c r="AB3" s="10" t="str">
+      <c r="AC3" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC3" s="10" t="str">
-        <f xml:space="preserve"> IF(Z3&gt;=AA3,"Зачет","Не зачет")</f>
+      <c r="AD3" s="10" t="str">
+        <f xml:space="preserve"> IF(AA3&gt;=AB3,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>22</v>
       </c>
@@ -1257,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
         <v>0</v>
@@ -1274,30 +1294,35 @@
       <c r="R4" s="7">
         <v>0</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>1</v>
+      </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="8">
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="8">
         <f t="shared" si="0"/>
-        <v>18.5</v>
-      </c>
-      <c r="AA4" s="9">
+        <v>29.5</v>
+      </c>
+      <c r="AB4" s="9">
         <v>85</v>
       </c>
-      <c r="AB4" s="10" t="str">
+      <c r="AC4" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC4" s="10" t="str">
-        <f t="shared" ref="AC4:AC6" si="2" xml:space="preserve"> IF(Z4&gt;=AA4,"Зачет","Не зачет")</f>
+      <c r="AD4" s="10" t="str">
+        <f t="shared" ref="AD4:AD6" si="2" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>23</v>
       </c>
@@ -1335,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N5" s="7">
         <v>0</v>
@@ -1347,35 +1372,40 @@
         <v>0</v>
       </c>
       <c r="Q5" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R5" s="7">
         <v>0</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="8">
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="8">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="AA5" s="9">
+        <v>37</v>
+      </c>
+      <c r="AB5" s="9">
         <v>85</v>
       </c>
-      <c r="AB5" s="10" t="str">
-        <f>IF(Z5&gt;=87,"отл",IF(Z5&gt;=73,"хорошо",IF(Z5&gt;=50,"удовл","Не удовл")))</f>
+      <c r="AC5" s="10" t="str">
+        <f>IF(AA5&gt;=87,"отл",IF(AA5&gt;=73,"хорошо",IF(AA5&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AC5" s="10" t="str">
+      <c r="AD5" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>24</v>
       </c>
@@ -1425,35 +1455,52 @@
         <v>1</v>
       </c>
       <c r="Q6" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R6" s="7">
         <v>1</v>
       </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="8">
+      <c r="S6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="7">
+        <v>12</v>
+      </c>
+      <c r="V6" s="7">
+        <v>1</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>24</v>
+      </c>
+      <c r="AA6" s="8">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="AA6" s="9">
+        <v>96</v>
+      </c>
+      <c r="AB6" s="9">
         <v>85</v>
       </c>
-      <c r="AB6" s="10" t="str">
-        <f t="shared" ref="AB6:AB9" si="3">IF(Z6&gt;=87,"отл",IF(Z6&gt;=73,"хорошо",IF(Z6&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
-      </c>
       <c r="AC6" s="10" t="str">
+        <f t="shared" ref="AC6:AC9" si="3">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
+        <v>отл</v>
+      </c>
+      <c r="AD6" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>25</v>
       </c>
@@ -1508,30 +1555,35 @@
       <c r="R7" s="7">
         <v>0</v>
       </c>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0.2</v>
+      </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
-      <c r="Z7" s="4">
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AA7" s="9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AB7" s="9">
         <v>85</v>
       </c>
-      <c r="AB7" s="10" t="str">
+      <c r="AC7" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC7" s="33" t="str">
-        <f xml:space="preserve"> IF(Z7&gt;=AA7,"Зачет","Не зачет")</f>
+      <c r="AD7" s="33" t="str">
+        <f xml:space="preserve"> IF(AA7&gt;=AB7,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>26</v>
       </c>
@@ -1586,30 +1638,35 @@
       <c r="R8" s="7">
         <v>0</v>
       </c>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0</v>
+      </c>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="8">
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AA8" s="9">
+      <c r="AB8" s="9">
         <v>85</v>
       </c>
-      <c r="AB8" s="10" t="str">
+      <c r="AC8" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC8" s="10" t="str">
-        <f xml:space="preserve"> IF(Z8&gt;=AA8,"Зачет","Не зачет")</f>
+      <c r="AD8" s="10" t="str">
+        <f xml:space="preserve"> IF(AA8&gt;=AB8,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>27</v>
       </c>
@@ -1664,75 +1721,81 @@
       <c r="R9" s="7">
         <v>0</v>
       </c>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="S9" s="7">
+        <v>0</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0.5</v>
+      </c>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="8">
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="AA9" s="9">
+        <v>20.5</v>
+      </c>
+      <c r="AB9" s="9">
         <v>85</v>
       </c>
-      <c r="AB9" s="10" t="str">
+      <c r="AC9" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC9" s="10" t="str">
-        <f t="shared" ref="AC9" si="4" xml:space="preserve"> IF(Z9&gt;=AA9,"Зачет","Не зачет")</f>
+      <c r="AD9" s="10" t="str">
+        <f t="shared" ref="AD9" si="4" xml:space="preserve"> IF(AA9&gt;=AB9,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="49" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="50"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="54" t="s">
+      <c r="L10" s="49"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="46" t="s">
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="47"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="46" t="s">
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="V10" s="47"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="44" t="s">
+      <c r="Y10" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="27"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="27"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1760,8 +1823,9 @@
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
       <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1789,8 +1853,9 @@
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1818,8 +1883,9 @@
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1847,8 +1913,9 @@
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
       <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1876,8 +1943,9 @@
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -1905,8 +1973,9 @@
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1934,8 +2003,9 @@
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1963,8 +2033,9 @@
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1992,8 +2063,9 @@
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
       <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -2021,8 +2093,9 @@
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
       <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -2050,8 +2123,9 @@
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
       <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -2079,8 +2153,9 @@
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
       <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -2108,27 +2183,32 @@
       <c r="Y23" s="19"/>
       <c r="Z23" s="19"/>
       <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SPZ/xmspx3LEvpVPPjAt17AgwjM49rqf4x7OiAhJ0aVe8af1Q8GXOQnUdTkIhC9cj+vmEvYBv/MAaYU95obnFQ==" saltValue="7Lo3x8FzjGG1WadLXt69/w==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jAK8lk3wxruW7F6RG80P0onk5TWyPEGS4aWVJblzXrUz400Y+wa6XBKnKeIMIXXOWjGkGBjJzK0Zw+wnt1cVkg==" saltValue="WQr4drllwKUc0r7y9ajXqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>
-  <mergeCells count="7">
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="U10:W10"/>
+  <mergeCells count="6">
+    <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:J10"/>
-    <mergeCell ref="R10:T10"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="R10:U10"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:H9 J2:Y9">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+  <conditionalFormatting sqref="C2:H9 J2:V9 X2:Z9">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W9">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Баллы 2017.xlsx
+++ b/Баллы 2017.xlsx
@@ -951,7 +951,7 @@
       <pane xSplit="2" ySplit="10" topLeftCell="R11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="AB7" sqref="AB7"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K2" s="7">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N2" s="7">
         <v>1</v>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R2" s="7">
         <v>0</v>
@@ -1134,22 +1134,30 @@
       <c r="T2" s="7">
         <v>0</v>
       </c>
-      <c r="U2" s="7"/>
+      <c r="U2" s="7">
+        <v>10</v>
+      </c>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
+      <c r="X2" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>24</v>
+      </c>
       <c r="AA2" s="4">
         <f t="shared" ref="AA2:AA9" si="0">SUM(C2:Z2)</f>
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="AB2" s="5">
         <v>85</v>
       </c>
       <c r="AC2" s="10" t="str">
         <f t="shared" ref="AC2:AC4" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD2" s="33" t="str">
         <f xml:space="preserve"> IF(AA2&gt;=AB2,"Зачет","Не зачет")</f>
@@ -1194,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="7">
         <v>0</v>
@@ -1225,7 +1233,7 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="8">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB3" s="9">
         <v>85</v>
@@ -1383,22 +1391,30 @@
       <c r="T5" s="7">
         <v>0</v>
       </c>
-      <c r="U5" s="7"/>
+      <c r="U5" s="7">
+        <v>10</v>
+      </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
+      <c r="X5" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>24</v>
+      </c>
       <c r="AA5" s="8">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>81.5</v>
       </c>
       <c r="AB5" s="9">
         <v>85</v>
       </c>
       <c r="AC5" s="10" t="str">
         <f>IF(AA5&gt;=87,"отл",IF(AA5&gt;=73,"хорошо",IF(AA5&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD5" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1565,11 +1581,13 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
+      <c r="Y7" s="7">
+        <v>1</v>
+      </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="4">
         <f t="shared" si="0"/>
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="AB7" s="9">
         <v>85</v>
@@ -1704,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N9" s="7">
         <v>0</v>
@@ -1716,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R9" s="7">
         <v>0</v>
@@ -1727,22 +1745,30 @@
       <c r="T9" s="7">
         <v>0.5</v>
       </c>
-      <c r="U9" s="7"/>
+      <c r="U9" s="7">
+        <v>8</v>
+      </c>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
+      <c r="X9" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>24</v>
+      </c>
       <c r="AA9" s="8">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>80.5</v>
       </c>
       <c r="AB9" s="9">
         <v>85</v>
       </c>
       <c r="AC9" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Не удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD9" s="10" t="str">
         <f t="shared" ref="AD9" si="4" xml:space="preserve"> IF(AA9&gt;=AB9,"Зачет","Не зачет")</f>
@@ -2186,7 +2212,7 @@
       <c r="AB23" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jAK8lk3wxruW7F6RG80P0onk5TWyPEGS4aWVJblzXrUz400Y+wa6XBKnKeIMIXXOWjGkGBjJzK0Zw+wnt1cVkg==" saltValue="WQr4drllwKUc0r7y9ajXqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6CFBvo6EAJdJq1cxMzHPvJ+uB/y31456Nz8S85Fk4tqZZyB+AlVwNqzDLxQD3eOno81FDeubU19V12pTyjI8+Q==" saltValue="rp6Pr6CLy8xWd0NRtMfXxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2017.xlsx
+++ b/Баллы 2017.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\NSTU\Student 2017\trunk\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -701,7 +696,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -736,7 +731,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -948,10 +943,10 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="R11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="V11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,17 +1572,21 @@
       <c r="T7" s="7">
         <v>0.2</v>
       </c>
-      <c r="U7" s="7"/>
+      <c r="U7" s="7">
+        <v>8</v>
+      </c>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
+      <c r="X7" s="7">
+        <v>9</v>
+      </c>
       <c r="Y7" s="7">
         <v>1</v>
       </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="4">
         <f t="shared" si="0"/>
-        <v>11.2</v>
+        <v>28.2</v>
       </c>
       <c r="AB7" s="9">
         <v>85</v>
@@ -2212,7 +2211,7 @@
       <c r="AB23" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6CFBvo6EAJdJq1cxMzHPvJ+uB/y31456Nz8S85Fk4tqZZyB+AlVwNqzDLxQD3eOno81FDeubU19V12pTyjI8+Q==" saltValue="rp6Pr6CLy8xWd0NRtMfXxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2017.xlsx
+++ b/Баллы 2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Варианты</t>
   </si>
@@ -940,13 +940,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="V11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="W11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="X8" sqref="X8"/>
+      <selection pane="bottomRight" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,11 +972,11 @@
     <col min="27" max="27" width="8.7109375" style="18"/>
     <col min="28" max="28" width="12.85546875" style="18" customWidth="1"/>
     <col min="29" max="29" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.7109375" style="18"/>
+    <col min="30" max="31" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
@@ -1065,10 +1065,13 @@
         <v>9</v>
       </c>
       <c r="AD1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>20</v>
       </c>
@@ -1155,11 +1158,15 @@
         <v>хорошо</v>
       </c>
       <c r="AD2" s="33" t="str">
+        <f>IF(AA2&gt;=98,"А+",IF(AA2&gt;=93,"А",IF(AA2&gt;=90,"А-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"B",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
+        <v>C+</v>
+      </c>
+      <c r="AE2" s="33" t="str">
         <f xml:space="preserve"> IF(AA2&gt;=AB2,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>21</v>
       </c>
@@ -1237,12 +1244,16 @@
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD3" s="10" t="str">
+      <c r="AD3" s="33" t="str">
+        <f t="shared" ref="AD3:AD9" si="2">IF(AA3&gt;=98,"А+",IF(AA3&gt;=93,"А",IF(AA3&gt;=90,"А-",IF(AA3&gt;=87,"B+",IF(AA3&gt;=83,"B",IF(AA3&gt;=80,"B-",IF(AA3&gt;=77,"C+",IF(AA3&gt;=73,"B",IF(AA3&gt;=70,"C-",IF(AA3&gt;=67,"D+",IF(AA3&gt;=63,"D",IF(AA3&gt;=60,"D-",IF(AA3&gt;=50,"E","Не удовл")))))))))))))</f>
+        <v>Не удовл</v>
+      </c>
+      <c r="AE3" s="10" t="str">
         <f xml:space="preserve"> IF(AA3&gt;=AB3,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>22</v>
       </c>
@@ -1292,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R4" s="7">
         <v>0</v>
@@ -1308,24 +1319,30 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="Z4" s="7">
+        <v>15</v>
+      </c>
       <c r="AA4" s="8">
         <f t="shared" si="0"/>
-        <v>29.5</v>
+        <v>51.5</v>
       </c>
       <c r="AB4" s="9">
         <v>85</v>
       </c>
       <c r="AC4" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD4" s="10" t="str">
-        <f t="shared" ref="AD4:AD6" si="2" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
+        <v>удовл</v>
+      </c>
+      <c r="AD4" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>E</v>
+      </c>
+      <c r="AE4" s="10" t="str">
+        <f t="shared" ref="AD4:AE6" si="3" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>23</v>
       </c>
@@ -1411,12 +1428,16 @@
         <f>IF(AA5&gt;=87,"отл",IF(AA5&gt;=73,"хорошо",IF(AA5&gt;=50,"удовл","Не удовл")))</f>
         <v>хорошо</v>
       </c>
-      <c r="AD5" s="10" t="str">
+      <c r="AD5" s="33" t="str">
         <f t="shared" si="2"/>
+        <v>B-</v>
+      </c>
+      <c r="AE5" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>24</v>
       </c>
@@ -1503,15 +1524,19 @@
         <v>85</v>
       </c>
       <c r="AC6" s="10" t="str">
-        <f t="shared" ref="AC6:AC9" si="3">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" ref="AC6:AC9" si="4">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
         <v>отл</v>
       </c>
-      <c r="AD6" s="10" t="str">
+      <c r="AD6" s="33" t="str">
         <f t="shared" si="2"/>
+        <v>А</v>
+      </c>
+      <c r="AE6" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>Зачет</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>25</v>
       </c>
@@ -1592,15 +1617,19 @@
         <v>85</v>
       </c>
       <c r="AC7" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Не удовл</v>
       </c>
       <c r="AD7" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AE7" s="33" t="str">
         <f xml:space="preserve"> IF(AA7&gt;=AB7,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>26</v>
       </c>
@@ -1675,15 +1704,19 @@
         <v>85</v>
       </c>
       <c r="AC8" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD8" s="10" t="str">
+      <c r="AD8" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AE8" s="10" t="str">
         <f xml:space="preserve"> IF(AA8&gt;=AB8,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>27</v>
       </c>
@@ -1766,15 +1799,19 @@
         <v>85</v>
       </c>
       <c r="AC9" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>хорошо</v>
       </c>
-      <c r="AD9" s="10" t="str">
-        <f t="shared" ref="AD9" si="4" xml:space="preserve"> IF(AA9&gt;=AB9,"Зачет","Не зачет")</f>
+      <c r="AD9" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>B-</v>
+      </c>
+      <c r="AE9" s="10" t="str">
+        <f t="shared" ref="AD9:AE9" si="5" xml:space="preserve"> IF(AA9&gt;=AB9,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="48" t="s">
@@ -1819,8 +1856,9 @@
       <c r="AB10" s="13"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1850,7 +1888,7 @@
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1880,7 +1918,7 @@
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1910,7 +1948,7 @@
       <c r="AA13" s="19"/>
       <c r="AB13" s="19"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1940,7 +1978,7 @@
       <c r="AA14" s="19"/>
       <c r="AB14" s="19"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1970,7 +2008,7 @@
       <c r="AA15" s="19"/>
       <c r="AB15" s="19"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
